--- a/3спринт/Проект 3 спринта Филипчик Павел.xlsx
+++ b/3спринт/Проект 3 спринта Филипчик Павел.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Yandex.Student\Y.Routes\3спринт\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05DAB8AC-E769-4247-B77B-7E94CECF62A4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ABE8A46-D128-4B98-B366-D8316C1121C4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="66">
   <si>
     <t>№</t>
   </si>
@@ -202,6 +202,24 @@
   <si>
     <t>https://tracker.yandex.ru/BUG-50425</t>
   </si>
+  <si>
+    <t>BUG-50468</t>
+  </si>
+  <si>
+    <t>https://tracker.yandex.ru/BUG-50468</t>
+  </si>
+  <si>
+    <t>BUG-50477</t>
+  </si>
+  <si>
+    <t>https://tracker.yandex.ru/BUG-50477</t>
+  </si>
+  <si>
+    <t>BUG-50500</t>
+  </si>
+  <si>
+    <t>https://tracker.yandex.ru/BUG-50500</t>
+  </si>
 </sst>
 </file>
 
@@ -302,7 +320,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -335,7 +353,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -374,19 +391,21 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -642,10 +661,10 @@
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="31" t="s">
+      <c r="C2" s="30" t="s">
         <v>7</v>
       </c>
       <c r="E2" s="4">
@@ -656,218 +675,218 @@
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="30" t="s">
+      <c r="C3" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="20" t="s">
+      <c r="D3" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="E3" s="18">
+      <c r="E3" s="17">
         <v>43831</v>
       </c>
-      <c r="F3" s="32" t="s">
+      <c r="F3" s="31" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="26" t="s">
+      <c r="B4" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="31" t="s">
+      <c r="C4" s="30" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="25.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="26" t="s">
+      <c r="B5" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="31" t="s">
+      <c r="C5" s="30" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="27" t="s">
+      <c r="B6" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="31" t="s">
+      <c r="C6" s="30" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="63" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="26" t="s">
+      <c r="B7" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="30" t="s">
+      <c r="C7" s="29" t="s">
         <v>32</v>
       </c>
       <c r="D7" t="s">
         <v>36</v>
       </c>
-      <c r="F7" s="32" t="s">
+      <c r="F7" s="31" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="21" customFormat="1" ht="47.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="28" t="s">
+    <row r="8" spans="1:6" s="20" customFormat="1" ht="47.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="31" t="s">
+      <c r="C8" s="30" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="47.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
-      <c r="B9" s="28" t="s">
+      <c r="B9" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="30" t="s">
+      <c r="C9" s="29" t="s">
         <v>32</v>
       </c>
       <c r="D9" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="F9" s="32" t="s">
+      <c r="F9" s="31" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8"/>
-      <c r="B10" s="28" t="s">
+      <c r="B10" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="31" t="s">
+      <c r="C10" s="30" t="s">
         <v>7</v>
       </c>
       <c r="D10" s="9"/>
     </row>
     <row r="11" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8"/>
-      <c r="B11" s="28" t="s">
+      <c r="B11" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="31" t="s">
+      <c r="C11" s="30" t="s">
         <v>7</v>
       </c>
       <c r="D11" s="9"/>
     </row>
     <row r="12" spans="1:6" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="28" t="s">
+      <c r="B12" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="31" t="s">
+      <c r="C12" s="30" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="28" t="s">
+      <c r="B13" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="31" t="s">
+      <c r="C13" s="30" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="26" t="s">
+      <c r="B14" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="30" t="s">
+      <c r="C14" s="29" t="s">
         <v>32</v>
       </c>
       <c r="D14" t="s">
         <v>45</v>
       </c>
-      <c r="F14" s="32" t="s">
+      <c r="F14" s="31" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="43.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="26" t="s">
+      <c r="B15" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="31" t="s">
+      <c r="C15" s="30" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="26" t="s">
+      <c r="B16" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="C16" s="30" t="s">
+      <c r="C16" s="29" t="s">
         <v>32</v>
       </c>
       <c r="D16" t="s">
         <v>39</v>
       </c>
-      <c r="F16" s="32" t="s">
+      <c r="F16" s="31" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="26" t="s">
+      <c r="B17" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="C17" s="30" t="s">
+      <c r="C17" s="29" t="s">
         <v>32</v>
       </c>
       <c r="D17" t="s">
         <v>41</v>
       </c>
-      <c r="F17" s="32" t="s">
+      <c r="F17" s="31" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="26" t="s">
+      <c r="B18" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="C18" s="30" t="s">
+      <c r="C18" s="29" t="s">
         <v>32</v>
       </c>
       <c r="D18" t="s">
         <v>43</v>
       </c>
-      <c r="F18" s="32" t="s">
+      <c r="F18" s="31" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="26" t="s">
+      <c r="B19" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="C19" s="30" t="s">
+      <c r="C19" s="29" t="s">
         <v>32</v>
       </c>
       <c r="D19" t="s">
         <v>47</v>
       </c>
-      <c r="F19" s="32" t="s">
+      <c r="F19" s="31" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="52.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="26" t="s">
+      <c r="B20" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="C20" s="31" t="s">
+      <c r="C20" s="30" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="43.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="28" t="s">
+      <c r="B21" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="C21" s="31" t="s">
+      <c r="C21" s="30" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:6" s="21" customFormat="1" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="28" t="s">
+    <row r="22" spans="1:6" s="20" customFormat="1" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="C22" s="31" t="s">
+      <c r="C22" s="30" t="s">
         <v>7</v>
       </c>
     </row>
@@ -4809,7 +4828,7 @@
   <dimension ref="A1:E1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4819,7 +4838,7 @@
     <col min="3" max="3" width="36.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4833,146 +4852,165 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
+    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-    </row>
-    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+    </row>
+    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="24"/>
-    </row>
-    <row r="4" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="C3" s="23"/>
+    </row>
+    <row r="4" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="24"/>
-    </row>
-    <row r="5" spans="1:4" ht="31.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C4" s="23"/>
+    </row>
+    <row r="5" spans="1:5" ht="31.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="24"/>
-    </row>
-    <row r="6" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="C5" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="E5" s="31" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="23"/>
-    </row>
-    <row r="7" spans="1:4" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C6" s="22"/>
+    </row>
+    <row r="7" spans="1:5" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="14">
         <v>5</v>
       </c>
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="C7" s="23"/>
-    </row>
-    <row r="8" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A8" s="34" t="s">
+      <c r="C7" s="22" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A8" s="35" t="s">
         <v>49</v>
       </c>
-      <c r="B8" s="33"/>
-      <c r="C8" s="33"/>
-      <c r="D8" s="33"/>
-    </row>
-    <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="36"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="36"/>
+    </row>
+    <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14">
         <v>1</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="29" t="s">
+      <c r="C9" s="28" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D9" s="37" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2</v>
       </c>
-      <c r="B10" s="20" t="s">
+      <c r="B10" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="C10" s="20" t="s">
+      <c r="C10" s="19" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D10" s="38"/>
+    </row>
+    <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>3</v>
       </c>
       <c r="B11" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="29" t="s">
+      <c r="C11" s="28" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D11" s="38"/>
+    </row>
+    <row r="12" spans="1:5" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>4</v>
       </c>
-      <c r="B12" s="35" t="s">
+      <c r="B12" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="29" t="s">
+      <c r="C12" s="28" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D12" s="38"/>
+      <c r="E12" s="31" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="B13" s="36"/>
-      <c r="C13" s="36"/>
-      <c r="D13" s="36"/>
-    </row>
-    <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="38"/>
+      <c r="C13" s="38"/>
+      <c r="D13" s="38"/>
+    </row>
+    <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="29" t="s">
+      <c r="C14" s="28" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:4" s="15" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" s="15" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="29" t="s">
+      <c r="C15" s="28" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2</v>
       </c>
-      <c r="B16" s="19" t="s">
+      <c r="B16" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="29" t="s">
+      <c r="C16" s="28" t="s">
         <v>7</v>
       </c>
     </row>
@@ -4980,10 +5018,10 @@
       <c r="A17">
         <v>3</v>
       </c>
-      <c r="B17" s="19" t="s">
+      <c r="B17" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="C17" s="29" t="s">
+      <c r="C17" s="28" t="s">
         <v>7</v>
       </c>
     </row>
@@ -4991,10 +5029,10 @@
       <c r="A18">
         <v>4</v>
       </c>
-      <c r="B18" s="22" t="s">
+      <c r="B18" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="C18" s="29" t="s">
+      <c r="C18" s="28" t="s">
         <v>7</v>
       </c>
     </row>
@@ -5002,16 +5040,16 @@
       <c r="A19">
         <v>5</v>
       </c>
-      <c r="B19" s="19" t="s">
+      <c r="B19" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="C19" s="29" t="s">
+      <c r="C19" s="28" t="s">
         <v>32</v>
       </c>
       <c r="D19" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="E19" s="32" t="s">
+      <c r="E19" s="31" t="s">
         <v>59</v>
       </c>
     </row>
@@ -5019,15 +5057,15 @@
       <c r="A20" s="37" t="s">
         <v>53</v>
       </c>
-      <c r="B20" s="36"/>
-      <c r="C20" s="36"/>
-      <c r="D20" s="36"/>
+      <c r="B20" s="38"/>
+      <c r="C20" s="38"/>
+      <c r="D20" s="38"/>
     </row>
     <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="15">
         <v>1</v>
       </c>
-      <c r="B21" s="25" t="s">
+      <c r="B21" s="24" t="s">
         <v>4</v>
       </c>
       <c r="C21" s="5" t="s">
@@ -5038,10 +5076,10 @@
       <c r="A22" s="15">
         <v>2</v>
       </c>
-      <c r="B22" s="26" t="s">
+      <c r="B22" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="C22" s="20" t="s">
+      <c r="C22" s="19" t="s">
         <v>7</v>
       </c>
     </row>
@@ -5049,10 +5087,10 @@
       <c r="A23" s="15">
         <v>3</v>
       </c>
-      <c r="B23" s="26" t="s">
+      <c r="B23" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="C23" s="20" t="s">
+      <c r="C23" s="19" t="s">
         <v>7</v>
       </c>
     </row>
@@ -5060,21 +5098,27 @@
       <c r="A24" s="15">
         <v>4</v>
       </c>
-      <c r="B24" s="35" t="s">
+      <c r="B24" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="C24" s="29" t="s">
+      <c r="C24" s="28" t="s">
         <v>32</v>
+      </c>
+      <c r="D24" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="E24" s="31" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="15">
         <v>5</v>
       </c>
-      <c r="B25" s="28" t="s">
+      <c r="B25" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="C25" s="29" t="s">
+      <c r="C25" s="28" t="s">
         <v>7</v>
       </c>
     </row>
@@ -8980,11 +9024,12 @@
       <c r="C1000" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="A8:D8"/>
     <mergeCell ref="A13:D13"/>
     <mergeCell ref="A20:D20"/>
+    <mergeCell ref="D9:D12"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" sqref="C1 C3:C5 C9 C11:C12 C24:C1000 C14:C19 C21" xr:uid="{00000000-0002-0000-0100-000000000000}">
@@ -8993,8 +9038,11 @@
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="E19" r:id="rId1" xr:uid="{1B846089-FB86-4845-9FAE-4FE8D93C4527}"/>
+    <hyperlink ref="E24" r:id="rId2" xr:uid="{321A52C6-B4EE-4C56-BA65-463E42407214}"/>
+    <hyperlink ref="E5" r:id="rId3" xr:uid="{E3122150-27F9-4AAD-811E-9D4AF8A84D72}"/>
+    <hyperlink ref="E12" r:id="rId4" xr:uid="{EE8BB454-A9E5-4022-BA38-77D482A4B074}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
--- a/3спринт/Проект 3 спринта Филипчик Павел.xlsx
+++ b/3спринт/Проект 3 спринта Филипчик Павел.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Yandex.Student\Y.Routes\3спринт\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ABE8A46-D128-4B98-B366-D8316C1121C4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4566949D-8504-4BD1-AF26-4FF57F0F1C44}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="69">
   <si>
     <t>№</t>
   </si>
@@ -36,9 +36,6 @@
   </si>
   <si>
     <t>ответ на запрос возвращает 200 ОК</t>
-  </si>
-  <si>
-    <t>Требование</t>
   </si>
   <si>
     <t>В карточке маршрута отображается кнопка Детали маршрута</t>
@@ -220,6 +217,18 @@
   <si>
     <t>https://tracker.yandex.ru/BUG-50500</t>
   </si>
+  <si>
+    <t>Добавление несуществующего продукта возвращает 404 NOT FOUND</t>
+  </si>
+  <si>
+    <t>удаление несуществующей корзины возращает ошибку 404 not found</t>
+  </si>
+  <si>
+    <t>BUG-55208</t>
+  </si>
+  <si>
+    <t>https://tracker.yandex.ru/BUG-55208</t>
+  </si>
 </sst>
 </file>
 
@@ -320,7 +329,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -334,13 +343,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -383,7 +385,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -394,6 +395,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -408,12 +410,76 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="6">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -629,8 +695,8 @@
   </sheetPr>
   <dimension ref="A1:F999"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -638,6 +704,7 @@
     <col min="1" max="1" width="5.33203125" customWidth="1"/>
     <col min="2" max="2" width="49.33203125" customWidth="1"/>
     <col min="3" max="3" width="36.33203125" customWidth="1"/>
+    <col min="4" max="4" width="14.44140625" style="39"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -650,245 +717,295 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="1"/>
+    </row>
+    <row r="2" spans="1:6" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="38">
+        <v>1</v>
+      </c>
+      <c r="B2" s="21" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="24" t="s">
+      <c r="C2" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="30" t="s">
+      <c r="E2" s="4"/>
+    </row>
+    <row r="3" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="39">
+        <v>2</v>
+      </c>
+      <c r="B3" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="37" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" s="14"/>
+      <c r="F3" s="27" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="38">
+        <v>3</v>
+      </c>
+      <c r="B4" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="26" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="25.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="39">
+        <v>4</v>
+      </c>
+      <c r="B5" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="26" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="38">
+        <v>5</v>
+      </c>
+      <c r="B6" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="26" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="63" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="39">
+        <v>6</v>
+      </c>
+      <c r="B7" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" s="27" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" s="17" customFormat="1" ht="47.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="38">
         <v>7</v>
       </c>
-      <c r="E2" s="4">
-        <v>43831</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="24" t="s">
+      <c r="B8" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="41"/>
+    </row>
+    <row r="9" spans="1:6" ht="47.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="39">
+        <v>8</v>
+      </c>
+      <c r="B9" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="40" t="s">
+        <v>36</v>
+      </c>
+      <c r="F9" s="27" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="38">
+        <v>9</v>
+      </c>
+      <c r="B10" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="40"/>
+    </row>
+    <row r="11" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="39">
+        <v>10</v>
+      </c>
+      <c r="B11" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="40"/>
+    </row>
+    <row r="12" spans="1:6" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="38">
+        <v>11</v>
+      </c>
+      <c r="B12" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="26" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="39">
         <v>12</v>
       </c>
-      <c r="C3" s="29" t="s">
-        <v>32</v>
-      </c>
-      <c r="D3" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="E3" s="17">
-        <v>43831</v>
-      </c>
-      <c r="F3" s="31" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="25" t="s">
+      <c r="B13" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="26" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="38">
         <v>13</v>
       </c>
-      <c r="C4" s="30" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="25.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="25" t="s">
+      <c r="B14" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" s="39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" s="27" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="43.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="39">
         <v>14</v>
       </c>
-      <c r="C5" s="30" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="26" t="s">
+      <c r="B15" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="26" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="38">
         <v>15</v>
       </c>
-      <c r="C6" s="30" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="63" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="25" t="s">
+      <c r="B16" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="F16" s="27" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="39">
         <v>16</v>
       </c>
-      <c r="C7" s="29" t="s">
-        <v>32</v>
-      </c>
-      <c r="D7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F7" s="31" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" s="20" customFormat="1" ht="47.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="27" t="s">
+      <c r="B17" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="F17" s="27" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="38">
         <v>17</v>
       </c>
-      <c r="C8" s="30" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="47.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="7"/>
-      <c r="B9" s="27" t="s">
+      <c r="B18" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="D18" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="F18" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="39">
         <v>18</v>
       </c>
-      <c r="C9" s="29" t="s">
-        <v>32</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="F9" s="31" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="8"/>
-      <c r="B10" s="27" t="s">
+      <c r="B19" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="D19" s="39" t="s">
+        <v>46</v>
+      </c>
+      <c r="F19" s="27" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="52.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="38">
         <v>19</v>
       </c>
-      <c r="C10" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" s="9"/>
-    </row>
-    <row r="11" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="8"/>
-      <c r="B11" s="27" t="s">
+      <c r="B20" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" s="26" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="43.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="39">
         <v>20</v>
       </c>
-      <c r="C11" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" s="9"/>
-    </row>
-    <row r="12" spans="1:6" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="27" t="s">
+      <c r="B21" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21" s="26" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" s="17" customFormat="1" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="38">
         <v>21</v>
       </c>
-      <c r="C12" s="30" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" s="30" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" s="29" t="s">
-        <v>32</v>
-      </c>
-      <c r="D14" t="s">
-        <v>45</v>
-      </c>
-      <c r="F14" s="31" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="43.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" s="30" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" s="29" t="s">
-        <v>32</v>
-      </c>
-      <c r="D16" t="s">
-        <v>39</v>
-      </c>
-      <c r="F16" s="31" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" s="29" t="s">
-        <v>32</v>
-      </c>
-      <c r="D17" t="s">
-        <v>41</v>
-      </c>
-      <c r="F17" s="31" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="C18" s="29" t="s">
-        <v>32</v>
-      </c>
-      <c r="D18" t="s">
-        <v>43</v>
-      </c>
-      <c r="F18" s="31" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="C19" s="29" t="s">
-        <v>32</v>
-      </c>
-      <c r="D19" t="s">
-        <v>47</v>
-      </c>
-      <c r="F19" s="31" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="52.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="C20" s="30" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="43.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="27" t="s">
+      <c r="B22" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="C21" s="30" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" s="20" customFormat="1" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="27" t="s">
-        <v>31</v>
-      </c>
-      <c r="C22" s="30" t="s">
-        <v>7</v>
-      </c>
+      <c r="C22" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" s="41"/>
     </row>
     <row r="23" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="6"/>
@@ -903,7 +1020,7 @@
       <c r="C25" s="5"/>
     </row>
     <row r="26" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A26" s="10"/>
+      <c r="A26" s="7"/>
       <c r="B26" s="6"/>
       <c r="C26" s="5"/>
     </row>
@@ -916,7 +1033,7 @@
       <c r="C28" s="5"/>
     </row>
     <row r="29" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="11"/>
+      <c r="B29" s="8"/>
       <c r="C29" s="5"/>
     </row>
     <row r="30" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4825,10 +4942,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:E1000"/>
+  <dimension ref="A1:E1002"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4853,12 +4970,12 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="33" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
+      <c r="A2" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
     </row>
     <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
@@ -4867,280 +4984,311 @@
       <c r="B3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="23"/>
+      <c r="C3" s="19" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="4" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="23"/>
+      <c r="B4" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="5" spans="1:5" ht="31.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="D5" s="16" t="s">
+      <c r="B5" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="E5" s="27" t="s">
         <v>62</v>
-      </c>
-      <c r="E5" s="31" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="22"/>
-    </row>
-    <row r="7" spans="1:5" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="14">
+      <c r="B6" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" s="29" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="C7" s="22" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A8" s="35" t="s">
+      <c r="B7" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="E7" s="27" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="11">
+        <v>6</v>
+      </c>
+      <c r="B8" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="B8" s="36"/>
-      <c r="C8" s="36"/>
-      <c r="D8" s="36"/>
-    </row>
-    <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="14">
+      <c r="C8" s="19" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A9" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="B9" s="33"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="33"/>
+    </row>
+    <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="11">
         <v>1</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="28" t="s">
-        <v>32</v>
-      </c>
-      <c r="D9" s="37" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>2</v>
-      </c>
-      <c r="B10" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="C10" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="D10" s="38"/>
+      <c r="C10" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="34" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11">
+        <v>2</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" s="37" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="34"/>
+    </row>
+    <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12">
         <v>3</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B12" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="34"/>
+    </row>
+    <row r="13" spans="1:5" s="29" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="29">
+        <v>4</v>
+      </c>
+      <c r="B13" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="28" t="s">
-        <v>32</v>
-      </c>
-      <c r="D11" s="38"/>
-    </row>
-    <row r="12" spans="1:5" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>4</v>
-      </c>
-      <c r="B12" s="32" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="28" t="s">
-        <v>32</v>
-      </c>
-      <c r="D12" s="38"/>
-      <c r="E12" s="31" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="37" t="s">
-        <v>57</v>
-      </c>
-      <c r="B13" s="38"/>
-      <c r="C13" s="38"/>
-      <c r="D13" s="38"/>
-    </row>
-    <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C13" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" s="34"/>
+      <c r="E13" s="29" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>1</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C14" s="28" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" s="15" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15" s="28" t="s">
-        <v>7</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="C14" s="42" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="29"/>
+      <c r="E14" s="27"/>
+    </row>
+    <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="B15" s="35"/>
+      <c r="C15" s="35"/>
+      <c r="D15" s="35"/>
     </row>
     <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" s="36" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" s="12" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="12">
         <v>2</v>
       </c>
-      <c r="B16" s="18" t="s">
+      <c r="B17" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="28" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17">
+      <c r="C17" s="36" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="29">
         <v>3</v>
       </c>
-      <c r="B17" s="18" t="s">
+      <c r="B18" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="36" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="29">
+        <v>4</v>
+      </c>
+      <c r="B19" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="C19" s="36" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="29">
+        <v>5</v>
+      </c>
+      <c r="B20" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="C20" s="36" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="29">
+        <v>6</v>
+      </c>
+      <c r="B21" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="C21" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="E21" s="27" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="34" t="s">
         <v>52</v>
       </c>
-      <c r="C17" s="28" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18">
+      <c r="B22" s="35"/>
+      <c r="C22" s="35"/>
+      <c r="D22" s="35"/>
+    </row>
+    <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="12">
+        <v>1</v>
+      </c>
+      <c r="B23" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="B18" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="C18" s="28" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19">
+      <c r="C23" s="38" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="12">
+        <v>2</v>
+      </c>
+      <c r="B24" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" s="37" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="12">
+        <v>3</v>
+      </c>
+      <c r="B25" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="C25" s="37" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="12">
+        <v>4</v>
+      </c>
+      <c r="B26" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="D26" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="E26" s="27" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="12">
         <v>5</v>
       </c>
-      <c r="B19" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="C19" s="28" t="s">
-        <v>32</v>
-      </c>
-      <c r="D19" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="E19" s="31" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="37" t="s">
-        <v>53</v>
-      </c>
-      <c r="B20" s="38"/>
-      <c r="C20" s="38"/>
-      <c r="D20" s="38"/>
-    </row>
-    <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="15">
-        <v>1</v>
-      </c>
-      <c r="B21" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="15">
-        <v>2</v>
-      </c>
-      <c r="B22" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="C22" s="19" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="15">
-        <v>3</v>
-      </c>
-      <c r="B23" s="25" t="s">
+      <c r="B27" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="C23" s="19" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="15">
-        <v>4</v>
-      </c>
-      <c r="B24" s="32" t="s">
-        <v>11</v>
-      </c>
-      <c r="C24" s="28" t="s">
-        <v>32</v>
-      </c>
-      <c r="D24" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="E24" s="31" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="15">
-        <v>5</v>
-      </c>
-      <c r="B25" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="C25" s="28" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="6"/>
-      <c r="C26" s="5"/>
-    </row>
-    <row r="27" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A27" s="10"/>
-      <c r="B27" s="6"/>
-      <c r="C27" s="5"/>
+      <c r="C27" s="36" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="6"/>
       <c r="C28" s="5"/>
     </row>
-    <row r="29" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A29" s="7"/>
       <c r="B29" s="6"/>
       <c r="C29" s="5"/>
     </row>
     <row r="30" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="11"/>
+      <c r="B30" s="6"/>
       <c r="C30" s="5"/>
     </row>
     <row r="31" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5148,7 +5296,7 @@
       <c r="C31" s="5"/>
     </row>
     <row r="32" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="6"/>
+      <c r="B32" s="8"/>
       <c r="C32" s="5"/>
     </row>
     <row r="33" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5183,11 +5331,11 @@
       <c r="B40" s="6"/>
       <c r="C40" s="5"/>
     </row>
-    <row r="41" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="6"/>
       <c r="C41" s="5"/>
     </row>
-    <row r="42" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="6"/>
       <c r="C42" s="5"/>
     </row>
@@ -9023,24 +9171,53 @@
       <c r="B1000" s="6"/>
       <c r="C1000" s="5"/>
     </row>
+    <row r="1001" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B1001" s="6"/>
+      <c r="C1001" s="5"/>
+    </row>
+    <row r="1002" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B1002" s="6"/>
+      <c r="C1002" s="5"/>
+    </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A13:D13"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="D9:D12"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="D10:D13"/>
   </mergeCells>
+  <conditionalFormatting sqref="C23:C27">
+    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="FAILED">
+      <formula>NOT(ISERROR(SEARCH("FAILED",C23)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C16:C21">
+    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="FAILED">
+      <formula>NOT(ISERROR(SEARCH("FAILED",C16)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="2" priority="4" operator="containsText" text="PASSED">
+      <formula>NOT(ISERROR(SEARCH("PASSED",C16)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C15:C1048576 C1:C13">
+    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="PASSED">
+      <formula>NOT(ISERROR(SEARCH("PASSED",C1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="FAILED">
+      <formula>NOT(ISERROR(SEARCH("FAILED",C1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" sqref="C1 C3:C5 C9 C11:C12 C24:C1000 C14:C19 C21" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" sqref="C1 C23 C10 C26:C1002 C16:C21 C5 C12:C13" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"PASSED,FAILED"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="E19" r:id="rId1" xr:uid="{1B846089-FB86-4845-9FAE-4FE8D93C4527}"/>
-    <hyperlink ref="E24" r:id="rId2" xr:uid="{321A52C6-B4EE-4C56-BA65-463E42407214}"/>
+    <hyperlink ref="E21" r:id="rId1" xr:uid="{1B846089-FB86-4845-9FAE-4FE8D93C4527}"/>
+    <hyperlink ref="E26" r:id="rId2" xr:uid="{321A52C6-B4EE-4C56-BA65-463E42407214}"/>
     <hyperlink ref="E5" r:id="rId3" xr:uid="{E3122150-27F9-4AAD-811E-9D4AF8A84D72}"/>
-    <hyperlink ref="E12" r:id="rId4" xr:uid="{EE8BB454-A9E5-4022-BA38-77D482A4B074}"/>
+    <hyperlink ref="E7" r:id="rId4" xr:uid="{B33F112A-A13F-4ACD-AB1D-8DDA5FD4D36A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
